--- a/medicine/Premiers secours et secourisme/Les_femmes_et_les_enfants_d'abord/Les_femmes_et_les_enfants_d'abord.xlsx
+++ b/medicine/Premiers secours et secourisme/Les_femmes_et_les_enfants_d'abord/Les_femmes_et_les_enfants_d'abord.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_femmes_et_les_enfants_d%27abord</t>
+          <t>Les_femmes_et_les_enfants_d'abord</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">« Les femmes et les enfants d'abord » est une pratique chevaleresque, une coutume ou un protocole qui consiste, lors d’une menace mortelle (typiquement un naufrage avec un nombre de canots de sauvetage insuffisant), à sauver en priorité les femmes et les enfants avant les hommes adultes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_femmes_et_les_enfants_d%27abord</t>
+          <t>Les_femmes_et_les_enfants_d'abord</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au cours du XIXe siècle et du début du XXe siècle, les navires de tonnage inférieur à 10 000 tonnes n'ont pas suffisamment de canots de sauvetage pour sauver tous les passagers et l'équipage en cas de catastrophe maritime. La notion de sauver les femmes et les enfants lors d'un naufrage apparaît particulièrement dans l'Histoire lors des naufrages du HMS Birkenhead en Afrique du Sud en 1852 et du Titanic en 1912.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_femmes_et_les_enfants_d%27abord</t>
+          <t>Les_femmes_et_les_enfants_d'abord</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Efficacité
-L'étude suédoise Gender social norms and survival in maritime disaster publiée en 2012 révèle que malgré cette pratique, le taux de survie des femmes et des enfants est faible : une analyse de 18 désastres maritimes majeurs entre 1852 et 2011 et impliquant 15 000 individus de plus de 30 nationalités différentes montre que le taux de survie de l'équipage et du capitaine est supérieur à celui des passagers, que celui des hommes est le double des femmes et que celui des enfants n'atteint que 15 %. Cette étude affirme que les naufrages du Titanic et du Birkenhead sont les seuls où les femmes et les enfants sont proportionnellement plus nombreux que les hommes à s'en sortir[1],[2].
-Féminisme
-Lucy Delap de l'Université Sainte-Catherine de Cambridge étaye le fait que de sauver d'abord les femmes dans une situation d'urgence pouvait être un moyen de souligner la différence des sexes et justifier les inégalités homme-femme en les empêchant notamment d'obtenir le suffrage[3].
-Fin mai 2016, la revue Social Psychological and Personality Science publie une étude selon laquelle, malgré les progrès du féminisme, il est toujours considéré comme plus normal qu'un homme se sacrifie face à un danger plutôt qu'une femme, considérant la souffrance féminine comme plus intolérable socialement. Cette étude vise à mettre en exergue les normes sociales à l'œuvre dans les biais psychologiques favorables aux femmes[4]. L'expression est souvent utilisée pour souligner les archaïsmes psycho-sexuels latents dans les organisations sociales contemporaines[5].
+          <t>Efficacité</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étude suédoise Gender social norms and survival in maritime disaster publiée en 2012 révèle que malgré cette pratique, le taux de survie des femmes et des enfants est faible : une analyse de 18 désastres maritimes majeurs entre 1852 et 2011 et impliquant 15 000 individus de plus de 30 nationalités différentes montre que le taux de survie de l'équipage et du capitaine est supérieur à celui des passagers, que celui des hommes est le double des femmes et que celui des enfants n'atteint que 15 %. Cette étude affirme que les naufrages du Titanic et du Birkenhead sont les seuls où les femmes et les enfants sont proportionnellement plus nombreux que les hommes à s'en sortir,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Les_femmes_et_les_enfants_d'abord</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_femmes_et_les_enfants_d%27abord</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Analyses</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Féminisme</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lucy Delap de l'Université Sainte-Catherine de Cambridge étaye le fait que de sauver d'abord les femmes dans une situation d'urgence pouvait être un moyen de souligner la différence des sexes et justifier les inégalités homme-femme en les empêchant notamment d'obtenir le suffrage.
+Fin mai 2016, la revue Social Psychological and Personality Science publie une étude selon laquelle, malgré les progrès du féminisme, il est toujours considéré comme plus normal qu'un homme se sacrifie face à un danger plutôt qu'une femme, considérant la souffrance féminine comme plus intolérable socialement. Cette étude vise à mettre en exergue les normes sociales à l'œuvre dans les biais psychologiques favorables aux femmes. L'expression est souvent utilisée pour souligner les archaïsmes psycho-sexuels latents dans les organisations sociales contemporaines.
 </t>
         </is>
       </c>
